--- a/downloaded_files/EPES406_Tutorial-35439.xlsx
+++ b/downloaded_files/EPES406_Tutorial-35439.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,6 +96,15 @@
     <x:t>Ingy Mahmoud Moustafa Mahmoud Omar</x:t>
   </x:si>
   <x:si>
+    <x:t>1210131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باكينام حاتم حافظ شعبان السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pakiname hatem hafez chaaban</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210004</x:t>
   </x:si>
   <x:si>
@@ -123,6 +132,15 @@
     <x:t>hussein mostafa mostafa aly</x:t>
   </x:si>
   <x:si>
+    <x:t>1210229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمد محمود عبدالعال حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad mohamed mahmoud abdel al Hussien</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210230</x:t>
   </x:si>
   <x:si>
@@ -132,6 +150,15 @@
     <x:t>ZEIAD MOSTAFA IBRAHIM ABDOU ELRAYES</x:t>
   </x:si>
   <x:si>
+    <x:t>1210240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سهيلة عمرو عبد العزيز احمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sohaila amr abdelaziz</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200175</x:t>
   </x:si>
   <x:si>
@@ -298,6 +325,15 @@
   </x:si>
   <x:si>
     <x:t>Haitham Mohamed Abd El Sattar Neweshy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى عزب محمد محمد العزب الباجوري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yahia azab mohamed mohamed alazab albagoury</x:t>
   </x:si>
   <x:si>
     <x:t>1210333</x:t>
@@ -476,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -776,7 +812,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -786,7 +822,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.480625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1091,7 +1127,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45927.4158855671</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1123,7 +1159,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4195042477</x:v>
+        <x:v>45906.415371412</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1155,7 +1191,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6660893171</x:v>
+        <x:v>45906.4195042477</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1187,7 +1223,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.6660893171</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1219,7 +1255,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6645693634</x:v>
+        <x:v>45927.4714826736</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1251,7 +1287,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1283,7 +1319,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4275198264</x:v>
+        <x:v>45927.4151322917</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1315,7 +1351,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4829779282</x:v>
+        <x:v>45906.6645693634</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1347,7 +1383,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1379,7 +1415,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45906.4275198264</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1411,7 +1447,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45909.4829779282</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1443,7 +1479,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6643389236</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1475,7 +1511,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4153025116</x:v>
+        <x:v>45906.6647546296</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1507,7 +1543,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4152072917</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1539,7 +1575,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.6643389236</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1571,7 +1607,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4192472569</x:v>
+        <x:v>45906.4153025116</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1603,7 +1639,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45906.4152072917</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1635,7 +1671,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1667,7 +1703,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.4192472569</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1699,7 +1735,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1731,7 +1767,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1759,9 +1795,11 @@
       <x:c r="C30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1784,16 +1822,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1816,16 +1854,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1848,16 +1886,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1889,7 +1925,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4182630787</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1921,7 +1957,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.415621794</x:v>
+        <x:v>45927.4152878125</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1953,7 +1989,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1985,7 +2021,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.664855787</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2017,7 +2053,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.4182630787</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2034,6 +2070,134 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45909.415621794</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45909.5512003472</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45906.664855787</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45906.6644524306</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES406_Tutorial-35439.xlsx
+++ b/downloaded_files/EPES406_Tutorial-35439.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Hassan Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ادهم احمد شعيب احمد عبد الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adham Ahmed Shoaib Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4220136</x:t>
@@ -512,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -812,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1063,7 +1072,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6653541667</x:v>
+        <x:v>45929.466044294</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1095,7 +1104,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6646043171</x:v>
+        <x:v>45906.6653541667</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1127,7 +1136,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4158855671</x:v>
+        <x:v>45906.6646043171</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1159,7 +1168,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45927.4158855671</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1191,7 +1200,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4195042477</x:v>
+        <x:v>45906.415371412</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1223,7 +1232,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6660893171</x:v>
+        <x:v>45906.4195042477</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1255,7 +1264,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4714826736</x:v>
+        <x:v>45906.6660893171</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45927.4714826736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4151322917</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6645693634</x:v>
+        <x:v>45927.4151322917</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45906.6645693634</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4275198264</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4829779282</x:v>
+        <x:v>45906.4275198264</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45909.4829779282</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45906.6647546296</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6643389236</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4153025116</x:v>
+        <x:v>45906.6643389236</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4152072917</x:v>
+        <x:v>45906.4153025116</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4152072917</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4192472569</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45906.4192472569</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1767,7 +1776,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1799,7 +1808,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1831,7 +1840,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1863,7 +1872,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1891,9 +1900,11 @@
       <x:c r="C33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s"/>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1916,16 +1927,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
+      <x:c r="D34" s="2" t="s"/>
       <x:c r="E34" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4152878125</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45927.4152878125</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4182630787</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2085,7 +2094,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.415621794</x:v>
+        <x:v>45906.4182630787</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2117,7 +2126,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45909.415621794</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2149,7 +2158,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.664855787</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2181,7 +2190,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.664855787</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2198,6 +2207,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45906.6644524306</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
